--- a/InputData/ccs/BFoCPAbI/BAU Fraction of CCS Potential Achieved by Industry.xlsx
+++ b/InputData/ccs/BFoCPAbI/BAU Fraction of CCS Potential Achieved by Industry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\LA\ccs\BFoCPAbI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03B0E880-8A51-405F-9D19-A26DD4875324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB4D207-B842-4C5B-A061-24E4C8ABAED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="145" windowWidth="5920" windowHeight="5620" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1515" windowWidth="15855" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -560,829 +560,829 @@
     <t>Time (Year)</t>
   </si>
   <si>
-    <t>Process Emissions before CCS[agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,construction 41T43,CO2] : NoSettings</t>
+    <t>Process Emissions before CCS[agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,construction 41T43,CO2] : test</t>
   </si>
   <si>
     <t>Louisiana</t>
@@ -2041,7 +2041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -2061,7 +2061,7 @@
         <v>449</v>
       </c>
       <c r="C1" s="39">
-        <v>45369</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3490,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000817FC-5CAD-42B5-92F8-1A675198574D}">
   <dimension ref="A25:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
@@ -3725,8 +3725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D869D793-4D45-441A-BEF3-5973BA28AC13}">
   <dimension ref="A1:AE300"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:AE280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12359,61 +12359,61 @@
         <v>0</v>
       </c>
       <c r="M94" s="38">
-        <v>943243</v>
+        <v>1001080</v>
       </c>
       <c r="N94" s="38">
-        <v>1871960</v>
+        <v>2002150</v>
       </c>
       <c r="O94" s="38">
-        <v>2836590</v>
+        <v>3003230</v>
       </c>
       <c r="P94" s="38">
-        <v>3769100</v>
+        <v>4004300</v>
       </c>
       <c r="Q94" s="38">
-        <v>4690350</v>
+        <v>5005380</v>
       </c>
       <c r="R94" s="38">
-        <v>4686590</v>
+        <v>5005380</v>
       </c>
       <c r="S94" s="38">
-        <v>4645910</v>
+        <v>5005380</v>
       </c>
       <c r="T94" s="38">
-        <v>4681080</v>
+        <v>5005380</v>
       </c>
       <c r="U94" s="38">
-        <v>4695760</v>
+        <v>5005380</v>
       </c>
       <c r="V94" s="38">
-        <v>4687030</v>
+        <v>5005380</v>
       </c>
       <c r="W94" s="38">
-        <v>4670400</v>
+        <v>5005380</v>
       </c>
       <c r="X94" s="38">
-        <v>4669000</v>
+        <v>5005380</v>
       </c>
       <c r="Y94" s="38">
-        <v>4686670</v>
+        <v>5005380</v>
       </c>
       <c r="Z94" s="38">
-        <v>4701120</v>
+        <v>5005380</v>
       </c>
       <c r="AA94" s="38">
-        <v>4720810</v>
+        <v>5005380</v>
       </c>
       <c r="AB94" s="38">
-        <v>4690790</v>
+        <v>5005380</v>
       </c>
       <c r="AC94" s="38">
-        <v>4679380</v>
+        <v>5005380</v>
       </c>
       <c r="AD94" s="38">
-        <v>4700960</v>
+        <v>5005380</v>
       </c>
       <c r="AE94" s="38">
-        <v>4704050</v>
+        <v>5005380</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
